--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0966C-FA66-9345-92A8-727B3637E458}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CAD073-12F0-FF49-9476-045A901B8A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-1840" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,6 @@
     <sheet name="Sprint 1 data" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint 2 data" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sprint 1 data'!$A$2:$A$194</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sprint 1 data'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sprint 1 data'!$B$2:$B$194</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sprint 1 data'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sprint 1 data'!$C$2:$C$194</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sprint 1 data'!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sprint 1 data'!$D$2:$D$194</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sprint 1 data'!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sprint 1 data'!$E$2:$E$194</definedName>
-  </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -11470,7 +11459,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="242" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11492,7 +11481,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669587" cy="6281777"/>
+    <xdr:ext cx="8674183" cy="6291895"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CAD073-12F0-FF49-9476-045A901B8A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3DC82-A25F-6041-A0C8-60D332179296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -11842,7 +11842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection sqref="A1:D194"/>
     </sheetView>
   </sheetViews>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3DC82-A25F-6041-A0C8-60D332179296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDE006-ED07-0F48-A8DC-95FBA88E4B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-88460" yWindow="3380" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -11459,7 +11459,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11481,7 +11481,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674183" cy="6291895"/>
+    <xdr:ext cx="8672763" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11842,7 +11842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D194"/>
     </sheetView>
   </sheetViews>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EDE006-ED07-0F48-A8DC-95FBA88E4B35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6D911-2A73-1548-B84E-2B383B3C527A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-88460" yWindow="3380" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-44340" yWindow="2340" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -2917,100 +2917,100 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>37</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11842,8 +11842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D194"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14775,7 +14775,7 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -14785,7 +14785,7 @@
       </c>
       <c r="G163">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -14793,7 +14793,7 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -14803,7 +14803,7 @@
       </c>
       <c r="G164">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -14811,7 +14811,7 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="G165">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -14829,7 +14829,7 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -14839,7 +14839,7 @@
       </c>
       <c r="G166">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -14847,7 +14847,7 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="G167">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -14865,7 +14865,7 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -14875,7 +14875,7 @@
       </c>
       <c r="G168">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -14883,7 +14883,7 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="G169">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -14901,7 +14901,7 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -14911,7 +14911,7 @@
       </c>
       <c r="G170">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -14919,7 +14919,7 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="G171">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -14937,7 +14937,7 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -14947,7 +14947,7 @@
       </c>
       <c r="G172">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -14955,7 +14955,7 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="G173">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -14973,7 +14973,7 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -14983,7 +14983,7 @@
       </c>
       <c r="G174">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -14991,7 +14991,7 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="G175">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -15009,7 +15009,7 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -15019,7 +15019,7 @@
       </c>
       <c r="G176">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -15027,7 +15027,7 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="G177">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -15045,7 +15045,7 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="G178">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -15063,7 +15063,7 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -15073,7 +15073,7 @@
       </c>
       <c r="G179">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -15081,7 +15081,7 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -15091,7 +15091,7 @@
       </c>
       <c r="G180">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -15099,7 +15099,7 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="G181">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -15117,7 +15117,7 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="G182">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -15135,7 +15135,7 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="G183">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -15153,7 +15153,7 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="G184">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -15171,7 +15171,7 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="G185">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -15189,7 +15189,7 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="G186">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -15207,7 +15207,7 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="G187">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -15225,7 +15225,7 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="G188">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -15243,7 +15243,7 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="G189">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -15261,7 +15261,7 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -15271,7 +15271,7 @@
       </c>
       <c r="G190">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -15279,7 +15279,7 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="G191">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -15297,7 +15297,7 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -15307,7 +15307,7 @@
       </c>
       <c r="G192">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -15315,7 +15315,7 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -15325,7 +15325,7 @@
       </c>
       <c r="G193">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -15333,7 +15333,7 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="G194">
         <f>SUM(B194:E194)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C6D911-2A73-1548-B84E-2B383B3C527A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2482677-2F3F-F949-A04E-CFB6DF371C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44340" yWindow="2340" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86420" yWindow="1960" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -3001,16 +3001,16 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>34</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>34</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>34</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5409,16 +5409,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11842,8 +11842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163:D194"/>
+    <sheetView topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15279,13 +15279,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G191">
         <f t="shared" si="2"/>
@@ -15297,13 +15297,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G192">
         <f t="shared" si="2"/>
@@ -15315,13 +15315,13 @@
         <v>195</v>
       </c>
       <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
         <v>34</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>1</v>
       </c>
       <c r="G193">
         <f t="shared" si="2"/>
@@ -15333,20 +15333,20 @@
         <v>196</v>
       </c>
       <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
         <v>34</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="G194">
         <f>SUM(B194:E194)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2482677-2F3F-F949-A04E-CFB6DF371C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AADC7-FA9F-B04C-BAAD-DBC3705E1E47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86420" yWindow="1960" windowWidth="33600" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86420" yWindow="1960" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>
@@ -5779,7 +5779,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 1 Burndown</a:t>
+              <a:t>Sprint 2 Burndown</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5851,580 +5851,580 @@
                   <c:v>2020-08-05 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-08-05 00:00:00-05:00</c:v>
+                  <c:v>2020-08-05 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-08-05 01:00:00-05:00</c:v>
+                  <c:v>2020-08-05 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-08-05 02:00:00-05:00</c:v>
+                  <c:v>2020-08-05 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-08-05 03:00:00-05:00</c:v>
+                  <c:v>2020-08-05 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-08-05 04:00:00-05:00</c:v>
+                  <c:v>2020-08-05 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-08-05 05:00:00-05:00</c:v>
+                  <c:v>2020-08-05 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08-05 06:00:00-05:00</c:v>
+                  <c:v>2020-08-05 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-08-05 07:00:00-05:00</c:v>
+                  <c:v>2020-08-05 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-08-05 08:00:00-05:00</c:v>
+                  <c:v>2020-08-05 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-08-05 09:00:00-05:00</c:v>
+                  <c:v>2020-08-05 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-08-05 10:00:00-05:00</c:v>
+                  <c:v>2020-08-05 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-08-05 11:00:00-05:00</c:v>
+                  <c:v>2020-08-05 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-08-05 12:00:00-05:00</c:v>
+                  <c:v>2020-08-05 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-08-05 13:00:00-05:00</c:v>
+                  <c:v>2020-08-05 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-08-05 14:00:00-05:00</c:v>
+                  <c:v>2020-08-05 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-08-05 15:00:00-05:00</c:v>
+                  <c:v>2020-08-05 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-08-05 16:00:00-05:00</c:v>
+                  <c:v>2020-08-05 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-08-05 17:00:00-05:00</c:v>
+                  <c:v>2020-08-05 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-08-05 18:00:00-05:00</c:v>
+                  <c:v>2020-08-05 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-08-05 19:00:00-05:00</c:v>
+                  <c:v>2020-08-05 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-08-05 20:00:00-05:00</c:v>
+                  <c:v>2020-08-05 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-08-05 21:00:00-05:00</c:v>
+                  <c:v>2020-08-05 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-08-05 22:00:00-05:00</c:v>
+                  <c:v>2020-08-05 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020-08-05 23:00:00-05:00</c:v>
+                  <c:v>2020-08-06 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020-08-06 00:00:00-05:00</c:v>
+                  <c:v>2020-08-06 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020-08-06 01:00:00-05:00</c:v>
+                  <c:v>2020-08-06 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020-08-06 02:00:00-05:00</c:v>
+                  <c:v>2020-08-06 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020-08-06 03:00:00-05:00</c:v>
+                  <c:v>2020-08-06 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020-08-06 04:00:00-05:00</c:v>
+                  <c:v>2020-08-06 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2020-08-06 05:00:00-05:00</c:v>
+                  <c:v>2020-08-06 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2020-08-06 06:00:00-05:00</c:v>
+                  <c:v>2020-08-06 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2020-08-06 07:00:00-05:00</c:v>
+                  <c:v>2020-08-06 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020-08-06 08:00:00-05:00</c:v>
+                  <c:v>2020-08-06 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2020-08-06 09:00:00-05:00</c:v>
+                  <c:v>2020-08-06 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2020-08-06 10:00:00-05:00</c:v>
+                  <c:v>2020-08-06 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2020-08-06 11:00:00-05:00</c:v>
+                  <c:v>2020-08-06 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2020-08-06 12:00:00-05:00</c:v>
+                  <c:v>2020-08-06 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2020-08-06 13:00:00-05:00</c:v>
+                  <c:v>2020-08-06 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2020-08-06 14:00:00-05:00</c:v>
+                  <c:v>2020-08-06 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2020-08-06 15:00:00-05:00</c:v>
+                  <c:v>2020-08-06 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2020-08-06 16:00:00-05:00</c:v>
+                  <c:v>2020-08-06 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2020-08-06 17:00:00-05:00</c:v>
+                  <c:v>2020-08-06 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2020-08-06 18:00:00-05:00</c:v>
+                  <c:v>2020-08-06 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2020-08-06 19:00:00-05:00</c:v>
+                  <c:v>2020-08-06 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2020-08-06 20:00:00-05:00</c:v>
+                  <c:v>2020-08-06 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2020-08-06 21:00:00-05:00</c:v>
+                  <c:v>2020-08-06 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2020-08-06 22:00:00-05:00</c:v>
+                  <c:v>2020-08-06 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2020-08-06 23:00:00-05:00</c:v>
+                  <c:v>2020-08-07 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2020-08-07 00:00:00-05:00</c:v>
+                  <c:v>2020-08-07 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2020-08-07 01:00:00-05:00</c:v>
+                  <c:v>2020-08-07 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2020-08-07 02:00:00-05:00</c:v>
+                  <c:v>2020-08-07 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2020-08-07 03:00:00-05:00</c:v>
+                  <c:v>2020-08-07 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2020-08-07 04:00:00-05:00</c:v>
+                  <c:v>2020-08-07 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2020-08-07 05:00:00-05:00</c:v>
+                  <c:v>2020-08-07 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2020-08-07 06:00:00-05:00</c:v>
+                  <c:v>2020-08-07 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2020-08-07 07:00:00-05:00</c:v>
+                  <c:v>2020-08-07 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2020-08-07 08:00:00-05:00</c:v>
+                  <c:v>2020-08-07 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2020-08-07 09:00:00-05:00</c:v>
+                  <c:v>2020-08-07 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2020-08-07 10:00:00-05:00</c:v>
+                  <c:v>2020-08-07 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2020-08-07 11:00:00-05:00</c:v>
+                  <c:v>2020-08-07 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020-08-07 12:00:00-05:00</c:v>
+                  <c:v>2020-08-07 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2020-08-07 13:00:00-05:00</c:v>
+                  <c:v>2020-08-07 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2020-08-07 14:00:00-05:00</c:v>
+                  <c:v>2020-08-07 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2020-08-07 15:00:00-05:00</c:v>
+                  <c:v>2020-08-07 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2020-08-07 16:00:00-05:00</c:v>
+                  <c:v>2020-08-07 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2020-08-07 17:00:00-05:00</c:v>
+                  <c:v>2020-08-07 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2020-08-07 18:00:00-05:00</c:v>
+                  <c:v>2020-08-07 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2020-08-07 19:00:00-05:00</c:v>
+                  <c:v>2020-08-07 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2020-08-07 20:00:00-05:00</c:v>
+                  <c:v>2020-08-07 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2020-08-07 21:00:00-05:00</c:v>
+                  <c:v>2020-08-07 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2020-08-07 22:00:00-05:00</c:v>
+                  <c:v>2020-08-07 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2020-08-07 23:00:00-05:00</c:v>
+                  <c:v>2020-08-08 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2020-08-08 00:00:00-05:00</c:v>
+                  <c:v>2020-08-08 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2020-08-08 01:00:00-05:00</c:v>
+                  <c:v>2020-08-08 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2020-08-08 02:00:00-05:00</c:v>
+                  <c:v>2020-08-08 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2020-08-08 03:00:00-05:00</c:v>
+                  <c:v>2020-08-08 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2020-08-08 04:00:00-05:00</c:v>
+                  <c:v>2020-08-08 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2020-08-08 05:00:00-05:00</c:v>
+                  <c:v>2020-08-08 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2020-08-08 06:00:00-05:00</c:v>
+                  <c:v>2020-08-08 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2020-08-08 07:00:00-05:00</c:v>
+                  <c:v>2020-08-08 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2020-08-08 08:00:00-05:00</c:v>
+                  <c:v>2020-08-08 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2020-08-08 09:00:00-05:00</c:v>
+                  <c:v>2020-08-08 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2020-08-08 10:00:00-05:00</c:v>
+                  <c:v>2020-08-08 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2020-08-08 11:00:00-05:00</c:v>
+                  <c:v>2020-08-08 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2020-08-08 12:00:00-05:00</c:v>
+                  <c:v>2020-08-08 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2020-08-08 13:00:00-05:00</c:v>
+                  <c:v>2020-08-08 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2020-08-08 14:00:00-05:00</c:v>
+                  <c:v>2020-08-08 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2020-08-08 15:00:00-05:00</c:v>
+                  <c:v>2020-08-08 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2020-08-08 16:00:00-05:00</c:v>
+                  <c:v>2020-08-08 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2020-08-08 17:00:00-05:00</c:v>
+                  <c:v>2020-08-08 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2020-08-08 18:00:00-05:00</c:v>
+                  <c:v>2020-08-08 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2020-08-08 19:00:00-05:00</c:v>
+                  <c:v>2020-08-08 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2020-08-08 20:00:00-05:00</c:v>
+                  <c:v>2020-08-08 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2020-08-08 21:00:00-05:00</c:v>
+                  <c:v>2020-08-08 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2020-08-08 22:00:00-05:00</c:v>
+                  <c:v>2020-08-08 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2020-08-08 23:00:00-05:00</c:v>
+                  <c:v>2020-08-09 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2020-08-09 00:00:00-05:00</c:v>
+                  <c:v>2020-08-09 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2020-08-09 01:00:00-05:00</c:v>
+                  <c:v>2020-08-09 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2020-08-09 02:00:00-05:00</c:v>
+                  <c:v>2020-08-09 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2020-08-09 03:00:00-05:00</c:v>
+                  <c:v>2020-08-09 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2020-08-09 04:00:00-05:00</c:v>
+                  <c:v>2020-08-09 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2020-08-09 05:00:00-05:00</c:v>
+                  <c:v>2020-08-09 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2020-08-09 06:00:00-05:00</c:v>
+                  <c:v>2020-08-09 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2020-08-09 07:00:00-05:00</c:v>
+                  <c:v>2020-08-09 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2020-08-09 08:00:00-05:00</c:v>
+                  <c:v>2020-08-09 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2020-08-09 09:00:00-05:00</c:v>
+                  <c:v>2020-08-09 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2020-08-09 10:00:00-05:00</c:v>
+                  <c:v>2020-08-09 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2020-08-09 11:00:00-05:00</c:v>
+                  <c:v>2020-08-09 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2020-08-09 12:00:00-05:00</c:v>
+                  <c:v>2020-08-09 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2020-08-09 13:00:00-05:00</c:v>
+                  <c:v>2020-08-09 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2020-08-09 14:00:00-05:00</c:v>
+                  <c:v>2020-08-09 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2020-08-09 15:00:00-05:00</c:v>
+                  <c:v>2020-08-09 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2020-08-09 16:00:00-05:00</c:v>
+                  <c:v>2020-08-09 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2020-08-09 17:00:00-05:00</c:v>
+                  <c:v>2020-08-09 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2020-08-09 18:00:00-05:00</c:v>
+                  <c:v>2020-08-09 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2020-08-09 19:00:00-05:00</c:v>
+                  <c:v>2020-08-09 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2020-08-09 20:00:00-05:00</c:v>
+                  <c:v>2020-08-09 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2020-08-09 21:00:00-05:00</c:v>
+                  <c:v>2020-08-09 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2020-08-09 22:00:00-05:00</c:v>
+                  <c:v>2020-08-09 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2020-08-09 23:00:00-05:00</c:v>
+                  <c:v>2020-08-10 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2020-08-10 00:00:00-05:00</c:v>
+                  <c:v>2020-08-10 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2020-08-10 01:00:00-05:00</c:v>
+                  <c:v>2020-08-10 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2020-08-10 02:00:00-05:00</c:v>
+                  <c:v>2020-08-10 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2020-08-10 03:00:00-05:00</c:v>
+                  <c:v>2020-08-10 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2020-08-10 04:00:00-05:00</c:v>
+                  <c:v>2020-08-10 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2020-08-10 05:00:00-05:00</c:v>
+                  <c:v>2020-08-10 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2020-08-10 06:00:00-05:00</c:v>
+                  <c:v>2020-08-10 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2020-08-10 07:00:00-05:00</c:v>
+                  <c:v>2020-08-10 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2020-08-10 08:00:00-05:00</c:v>
+                  <c:v>2020-08-10 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2020-08-10 09:00:00-05:00</c:v>
+                  <c:v>2020-08-10 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2020-08-10 10:00:00-05:00</c:v>
+                  <c:v>2020-08-10 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2020-08-10 11:00:00-05:00</c:v>
+                  <c:v>2020-08-10 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2020-08-10 12:00:00-05:00</c:v>
+                  <c:v>2020-08-10 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2020-08-10 13:00:00-05:00</c:v>
+                  <c:v>2020-08-10 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2020-08-10 14:00:00-05:00</c:v>
+                  <c:v>2020-08-10 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2020-08-10 15:00:00-05:00</c:v>
+                  <c:v>2020-08-10 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2020-08-10 16:00:00-05:00</c:v>
+                  <c:v>2020-08-10 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2020-08-10 17:00:00-05:00</c:v>
+                  <c:v>2020-08-10 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2020-08-10 18:00:00-05:00</c:v>
+                  <c:v>2020-08-10 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2020-08-10 19:00:00-05:00</c:v>
+                  <c:v>2020-08-10 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2020-08-10 20:00:00-05:00</c:v>
+                  <c:v>2020-08-10 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2020-08-10 21:00:00-05:00</c:v>
+                  <c:v>2020-08-10 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2020-08-10 22:00:00-05:00</c:v>
+                  <c:v>2020-08-10 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2020-08-10 23:00:00-05:00</c:v>
+                  <c:v>2020-08-11 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2020-08-11 00:00:00-05:00</c:v>
+                  <c:v>2020-08-11 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2020-08-11 01:00:00-05:00</c:v>
+                  <c:v>2020-08-11 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2020-08-11 02:00:00-05:00</c:v>
+                  <c:v>2020-08-11 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2020-08-11 03:00:00-05:00</c:v>
+                  <c:v>2020-08-11 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2020-08-11 04:00:00-05:00</c:v>
+                  <c:v>2020-08-11 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2020-08-11 05:00:00-05:00</c:v>
+                  <c:v>2020-08-11 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2020-08-11 06:00:00-05:00</c:v>
+                  <c:v>2020-08-11 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2020-08-11 07:00:00-05:00</c:v>
+                  <c:v>2020-08-11 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2020-08-11 08:00:00-05:00</c:v>
+                  <c:v>2020-08-11 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2020-08-11 09:00:00-05:00</c:v>
+                  <c:v>2020-08-11 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2020-08-11 10:00:00-05:00</c:v>
+                  <c:v>2020-08-11 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2020-08-11 11:00:00-05:00</c:v>
+                  <c:v>2020-08-11 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2020-08-11 12:00:00-05:00</c:v>
+                  <c:v>2020-08-11 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2020-08-11 13:00:00-05:00</c:v>
+                  <c:v>2020-08-11 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2020-08-11 14:00:00-05:00</c:v>
+                  <c:v>2020-08-11 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2020-08-11 15:00:00-05:00</c:v>
+                  <c:v>2020-08-11 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2020-08-11 16:00:00-05:00</c:v>
+                  <c:v>2020-08-11 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2020-08-11 17:00:00-05:00</c:v>
+                  <c:v>2020-08-11 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2020-08-11 18:00:00-05:00</c:v>
+                  <c:v>2020-08-11 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2020-08-11 19:00:00-05:00</c:v>
+                  <c:v>2020-08-11 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2020-08-11 20:00:00-05:00</c:v>
+                  <c:v>2020-08-11 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2020-08-11 21:00:00-05:00</c:v>
+                  <c:v>2020-08-11 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2020-08-11 22:00:00-05:00</c:v>
+                  <c:v>2020-08-11 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2020-08-11 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2020-08-12 00:00:00-05:00</c:v>
+                  <c:v>2020-08-12 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2020-08-12 01:00:00-05:00</c:v>
+                  <c:v>2020-08-12 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2020-08-12 02:00:00-05:00</c:v>
+                  <c:v>2020-08-12 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2020-08-12 03:00:00-05:00</c:v>
+                  <c:v>2020-08-12 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2020-08-12 04:00:00-05:00</c:v>
+                  <c:v>2020-08-12 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2020-08-12 05:00:00-05:00</c:v>
+                  <c:v>2020-08-12 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2020-08-12 06:00:00-05:00</c:v>
+                  <c:v>2020-08-12 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2020-08-12 07:00:00-05:00</c:v>
+                  <c:v>2020-08-12 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2020-08-12 08:00:00-05:00</c:v>
+                  <c:v>2020-08-12 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2020-08-12 09:00:00-05:00</c:v>
+                  <c:v>2020-08-12 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2020-08-12 10:00:00-05:00</c:v>
+                  <c:v>2020-08-12 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2020-08-12 11:00:00-05:00</c:v>
+                  <c:v>2020-08-12 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2020-08-12 12:00:00-05:00</c:v>
+                  <c:v>2020-08-12 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2020-08-12 13:00:00-05:00</c:v>
+                  <c:v>2020-08-12 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2020-08-12 14:00:00-05:00</c:v>
+                  <c:v>2020-08-12 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2020-08-12 15:00:00-05:00</c:v>
+                  <c:v>2020-08-12 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2020-08-12 16:00:00-05:00</c:v>
+                  <c:v>2020-08-12 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2020-08-12 17:00:00-05:00</c:v>
+                  <c:v>2020-08-12 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2020-08-12 18:00:00-05:00</c:v>
+                  <c:v>2020-08-12 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2020-08-12 19:00:00-05:00</c:v>
+                  <c:v>2020-08-12 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2020-08-12 20:00:00-05:00</c:v>
+                  <c:v>2020-08-12 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2020-08-12 21:00:00-05:00</c:v>
+                  <c:v>2020-08-12 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2020-08-12 22:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2020-08-12 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:59:59.999999-05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6436,583 +6436,583 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="193"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7055,580 +7055,580 @@
                   <c:v>2020-08-05 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-08-05 00:00:00-05:00</c:v>
+                  <c:v>2020-08-05 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-08-05 01:00:00-05:00</c:v>
+                  <c:v>2020-08-05 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-08-05 02:00:00-05:00</c:v>
+                  <c:v>2020-08-05 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-08-05 03:00:00-05:00</c:v>
+                  <c:v>2020-08-05 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-08-05 04:00:00-05:00</c:v>
+                  <c:v>2020-08-05 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-08-05 05:00:00-05:00</c:v>
+                  <c:v>2020-08-05 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08-05 06:00:00-05:00</c:v>
+                  <c:v>2020-08-05 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-08-05 07:00:00-05:00</c:v>
+                  <c:v>2020-08-05 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-08-05 08:00:00-05:00</c:v>
+                  <c:v>2020-08-05 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-08-05 09:00:00-05:00</c:v>
+                  <c:v>2020-08-05 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-08-05 10:00:00-05:00</c:v>
+                  <c:v>2020-08-05 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-08-05 11:00:00-05:00</c:v>
+                  <c:v>2020-08-05 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-08-05 12:00:00-05:00</c:v>
+                  <c:v>2020-08-05 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-08-05 13:00:00-05:00</c:v>
+                  <c:v>2020-08-05 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-08-05 14:00:00-05:00</c:v>
+                  <c:v>2020-08-05 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-08-05 15:00:00-05:00</c:v>
+                  <c:v>2020-08-05 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-08-05 16:00:00-05:00</c:v>
+                  <c:v>2020-08-05 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-08-05 17:00:00-05:00</c:v>
+                  <c:v>2020-08-05 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-08-05 18:00:00-05:00</c:v>
+                  <c:v>2020-08-05 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-08-05 19:00:00-05:00</c:v>
+                  <c:v>2020-08-05 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-08-05 20:00:00-05:00</c:v>
+                  <c:v>2020-08-05 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-08-05 21:00:00-05:00</c:v>
+                  <c:v>2020-08-05 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-08-05 22:00:00-05:00</c:v>
+                  <c:v>2020-08-05 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020-08-05 23:00:00-05:00</c:v>
+                  <c:v>2020-08-06 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020-08-06 00:00:00-05:00</c:v>
+                  <c:v>2020-08-06 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020-08-06 01:00:00-05:00</c:v>
+                  <c:v>2020-08-06 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020-08-06 02:00:00-05:00</c:v>
+                  <c:v>2020-08-06 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020-08-06 03:00:00-05:00</c:v>
+                  <c:v>2020-08-06 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020-08-06 04:00:00-05:00</c:v>
+                  <c:v>2020-08-06 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2020-08-06 05:00:00-05:00</c:v>
+                  <c:v>2020-08-06 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2020-08-06 06:00:00-05:00</c:v>
+                  <c:v>2020-08-06 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2020-08-06 07:00:00-05:00</c:v>
+                  <c:v>2020-08-06 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020-08-06 08:00:00-05:00</c:v>
+                  <c:v>2020-08-06 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2020-08-06 09:00:00-05:00</c:v>
+                  <c:v>2020-08-06 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2020-08-06 10:00:00-05:00</c:v>
+                  <c:v>2020-08-06 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2020-08-06 11:00:00-05:00</c:v>
+                  <c:v>2020-08-06 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2020-08-06 12:00:00-05:00</c:v>
+                  <c:v>2020-08-06 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2020-08-06 13:00:00-05:00</c:v>
+                  <c:v>2020-08-06 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2020-08-06 14:00:00-05:00</c:v>
+                  <c:v>2020-08-06 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2020-08-06 15:00:00-05:00</c:v>
+                  <c:v>2020-08-06 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2020-08-06 16:00:00-05:00</c:v>
+                  <c:v>2020-08-06 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2020-08-06 17:00:00-05:00</c:v>
+                  <c:v>2020-08-06 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2020-08-06 18:00:00-05:00</c:v>
+                  <c:v>2020-08-06 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2020-08-06 19:00:00-05:00</c:v>
+                  <c:v>2020-08-06 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2020-08-06 20:00:00-05:00</c:v>
+                  <c:v>2020-08-06 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2020-08-06 21:00:00-05:00</c:v>
+                  <c:v>2020-08-06 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2020-08-06 22:00:00-05:00</c:v>
+                  <c:v>2020-08-06 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2020-08-06 23:00:00-05:00</c:v>
+                  <c:v>2020-08-07 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2020-08-07 00:00:00-05:00</c:v>
+                  <c:v>2020-08-07 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2020-08-07 01:00:00-05:00</c:v>
+                  <c:v>2020-08-07 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2020-08-07 02:00:00-05:00</c:v>
+                  <c:v>2020-08-07 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2020-08-07 03:00:00-05:00</c:v>
+                  <c:v>2020-08-07 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2020-08-07 04:00:00-05:00</c:v>
+                  <c:v>2020-08-07 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2020-08-07 05:00:00-05:00</c:v>
+                  <c:v>2020-08-07 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2020-08-07 06:00:00-05:00</c:v>
+                  <c:v>2020-08-07 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2020-08-07 07:00:00-05:00</c:v>
+                  <c:v>2020-08-07 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2020-08-07 08:00:00-05:00</c:v>
+                  <c:v>2020-08-07 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2020-08-07 09:00:00-05:00</c:v>
+                  <c:v>2020-08-07 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2020-08-07 10:00:00-05:00</c:v>
+                  <c:v>2020-08-07 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2020-08-07 11:00:00-05:00</c:v>
+                  <c:v>2020-08-07 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020-08-07 12:00:00-05:00</c:v>
+                  <c:v>2020-08-07 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2020-08-07 13:00:00-05:00</c:v>
+                  <c:v>2020-08-07 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2020-08-07 14:00:00-05:00</c:v>
+                  <c:v>2020-08-07 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2020-08-07 15:00:00-05:00</c:v>
+                  <c:v>2020-08-07 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2020-08-07 16:00:00-05:00</c:v>
+                  <c:v>2020-08-07 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2020-08-07 17:00:00-05:00</c:v>
+                  <c:v>2020-08-07 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2020-08-07 18:00:00-05:00</c:v>
+                  <c:v>2020-08-07 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2020-08-07 19:00:00-05:00</c:v>
+                  <c:v>2020-08-07 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2020-08-07 20:00:00-05:00</c:v>
+                  <c:v>2020-08-07 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2020-08-07 21:00:00-05:00</c:v>
+                  <c:v>2020-08-07 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2020-08-07 22:00:00-05:00</c:v>
+                  <c:v>2020-08-07 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2020-08-07 23:00:00-05:00</c:v>
+                  <c:v>2020-08-08 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2020-08-08 00:00:00-05:00</c:v>
+                  <c:v>2020-08-08 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2020-08-08 01:00:00-05:00</c:v>
+                  <c:v>2020-08-08 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2020-08-08 02:00:00-05:00</c:v>
+                  <c:v>2020-08-08 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2020-08-08 03:00:00-05:00</c:v>
+                  <c:v>2020-08-08 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2020-08-08 04:00:00-05:00</c:v>
+                  <c:v>2020-08-08 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2020-08-08 05:00:00-05:00</c:v>
+                  <c:v>2020-08-08 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2020-08-08 06:00:00-05:00</c:v>
+                  <c:v>2020-08-08 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2020-08-08 07:00:00-05:00</c:v>
+                  <c:v>2020-08-08 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2020-08-08 08:00:00-05:00</c:v>
+                  <c:v>2020-08-08 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2020-08-08 09:00:00-05:00</c:v>
+                  <c:v>2020-08-08 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2020-08-08 10:00:00-05:00</c:v>
+                  <c:v>2020-08-08 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2020-08-08 11:00:00-05:00</c:v>
+                  <c:v>2020-08-08 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2020-08-08 12:00:00-05:00</c:v>
+                  <c:v>2020-08-08 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2020-08-08 13:00:00-05:00</c:v>
+                  <c:v>2020-08-08 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2020-08-08 14:00:00-05:00</c:v>
+                  <c:v>2020-08-08 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2020-08-08 15:00:00-05:00</c:v>
+                  <c:v>2020-08-08 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2020-08-08 16:00:00-05:00</c:v>
+                  <c:v>2020-08-08 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2020-08-08 17:00:00-05:00</c:v>
+                  <c:v>2020-08-08 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2020-08-08 18:00:00-05:00</c:v>
+                  <c:v>2020-08-08 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2020-08-08 19:00:00-05:00</c:v>
+                  <c:v>2020-08-08 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2020-08-08 20:00:00-05:00</c:v>
+                  <c:v>2020-08-08 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2020-08-08 21:00:00-05:00</c:v>
+                  <c:v>2020-08-08 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2020-08-08 22:00:00-05:00</c:v>
+                  <c:v>2020-08-08 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2020-08-08 23:00:00-05:00</c:v>
+                  <c:v>2020-08-09 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2020-08-09 00:00:00-05:00</c:v>
+                  <c:v>2020-08-09 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2020-08-09 01:00:00-05:00</c:v>
+                  <c:v>2020-08-09 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2020-08-09 02:00:00-05:00</c:v>
+                  <c:v>2020-08-09 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2020-08-09 03:00:00-05:00</c:v>
+                  <c:v>2020-08-09 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2020-08-09 04:00:00-05:00</c:v>
+                  <c:v>2020-08-09 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2020-08-09 05:00:00-05:00</c:v>
+                  <c:v>2020-08-09 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2020-08-09 06:00:00-05:00</c:v>
+                  <c:v>2020-08-09 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2020-08-09 07:00:00-05:00</c:v>
+                  <c:v>2020-08-09 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2020-08-09 08:00:00-05:00</c:v>
+                  <c:v>2020-08-09 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2020-08-09 09:00:00-05:00</c:v>
+                  <c:v>2020-08-09 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2020-08-09 10:00:00-05:00</c:v>
+                  <c:v>2020-08-09 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2020-08-09 11:00:00-05:00</c:v>
+                  <c:v>2020-08-09 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2020-08-09 12:00:00-05:00</c:v>
+                  <c:v>2020-08-09 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2020-08-09 13:00:00-05:00</c:v>
+                  <c:v>2020-08-09 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2020-08-09 14:00:00-05:00</c:v>
+                  <c:v>2020-08-09 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2020-08-09 15:00:00-05:00</c:v>
+                  <c:v>2020-08-09 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2020-08-09 16:00:00-05:00</c:v>
+                  <c:v>2020-08-09 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2020-08-09 17:00:00-05:00</c:v>
+                  <c:v>2020-08-09 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2020-08-09 18:00:00-05:00</c:v>
+                  <c:v>2020-08-09 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2020-08-09 19:00:00-05:00</c:v>
+                  <c:v>2020-08-09 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2020-08-09 20:00:00-05:00</c:v>
+                  <c:v>2020-08-09 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2020-08-09 21:00:00-05:00</c:v>
+                  <c:v>2020-08-09 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2020-08-09 22:00:00-05:00</c:v>
+                  <c:v>2020-08-09 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2020-08-09 23:00:00-05:00</c:v>
+                  <c:v>2020-08-10 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2020-08-10 00:00:00-05:00</c:v>
+                  <c:v>2020-08-10 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2020-08-10 01:00:00-05:00</c:v>
+                  <c:v>2020-08-10 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2020-08-10 02:00:00-05:00</c:v>
+                  <c:v>2020-08-10 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2020-08-10 03:00:00-05:00</c:v>
+                  <c:v>2020-08-10 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2020-08-10 04:00:00-05:00</c:v>
+                  <c:v>2020-08-10 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2020-08-10 05:00:00-05:00</c:v>
+                  <c:v>2020-08-10 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2020-08-10 06:00:00-05:00</c:v>
+                  <c:v>2020-08-10 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2020-08-10 07:00:00-05:00</c:v>
+                  <c:v>2020-08-10 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2020-08-10 08:00:00-05:00</c:v>
+                  <c:v>2020-08-10 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2020-08-10 09:00:00-05:00</c:v>
+                  <c:v>2020-08-10 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2020-08-10 10:00:00-05:00</c:v>
+                  <c:v>2020-08-10 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2020-08-10 11:00:00-05:00</c:v>
+                  <c:v>2020-08-10 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2020-08-10 12:00:00-05:00</c:v>
+                  <c:v>2020-08-10 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2020-08-10 13:00:00-05:00</c:v>
+                  <c:v>2020-08-10 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2020-08-10 14:00:00-05:00</c:v>
+                  <c:v>2020-08-10 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2020-08-10 15:00:00-05:00</c:v>
+                  <c:v>2020-08-10 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2020-08-10 16:00:00-05:00</c:v>
+                  <c:v>2020-08-10 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2020-08-10 17:00:00-05:00</c:v>
+                  <c:v>2020-08-10 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2020-08-10 18:00:00-05:00</c:v>
+                  <c:v>2020-08-10 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2020-08-10 19:00:00-05:00</c:v>
+                  <c:v>2020-08-10 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2020-08-10 20:00:00-05:00</c:v>
+                  <c:v>2020-08-10 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2020-08-10 21:00:00-05:00</c:v>
+                  <c:v>2020-08-10 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2020-08-10 22:00:00-05:00</c:v>
+                  <c:v>2020-08-10 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2020-08-10 23:00:00-05:00</c:v>
+                  <c:v>2020-08-11 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2020-08-11 00:00:00-05:00</c:v>
+                  <c:v>2020-08-11 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2020-08-11 01:00:00-05:00</c:v>
+                  <c:v>2020-08-11 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2020-08-11 02:00:00-05:00</c:v>
+                  <c:v>2020-08-11 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2020-08-11 03:00:00-05:00</c:v>
+                  <c:v>2020-08-11 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2020-08-11 04:00:00-05:00</c:v>
+                  <c:v>2020-08-11 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2020-08-11 05:00:00-05:00</c:v>
+                  <c:v>2020-08-11 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2020-08-11 06:00:00-05:00</c:v>
+                  <c:v>2020-08-11 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2020-08-11 07:00:00-05:00</c:v>
+                  <c:v>2020-08-11 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2020-08-11 08:00:00-05:00</c:v>
+                  <c:v>2020-08-11 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2020-08-11 09:00:00-05:00</c:v>
+                  <c:v>2020-08-11 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2020-08-11 10:00:00-05:00</c:v>
+                  <c:v>2020-08-11 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2020-08-11 11:00:00-05:00</c:v>
+                  <c:v>2020-08-11 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2020-08-11 12:00:00-05:00</c:v>
+                  <c:v>2020-08-11 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2020-08-11 13:00:00-05:00</c:v>
+                  <c:v>2020-08-11 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2020-08-11 14:00:00-05:00</c:v>
+                  <c:v>2020-08-11 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2020-08-11 15:00:00-05:00</c:v>
+                  <c:v>2020-08-11 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2020-08-11 16:00:00-05:00</c:v>
+                  <c:v>2020-08-11 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2020-08-11 17:00:00-05:00</c:v>
+                  <c:v>2020-08-11 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2020-08-11 18:00:00-05:00</c:v>
+                  <c:v>2020-08-11 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2020-08-11 19:00:00-05:00</c:v>
+                  <c:v>2020-08-11 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2020-08-11 20:00:00-05:00</c:v>
+                  <c:v>2020-08-11 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2020-08-11 21:00:00-05:00</c:v>
+                  <c:v>2020-08-11 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2020-08-11 22:00:00-05:00</c:v>
+                  <c:v>2020-08-11 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2020-08-11 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2020-08-12 00:00:00-05:00</c:v>
+                  <c:v>2020-08-12 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2020-08-12 01:00:00-05:00</c:v>
+                  <c:v>2020-08-12 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2020-08-12 02:00:00-05:00</c:v>
+                  <c:v>2020-08-12 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2020-08-12 03:00:00-05:00</c:v>
+                  <c:v>2020-08-12 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2020-08-12 04:00:00-05:00</c:v>
+                  <c:v>2020-08-12 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2020-08-12 05:00:00-05:00</c:v>
+                  <c:v>2020-08-12 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2020-08-12 06:00:00-05:00</c:v>
+                  <c:v>2020-08-12 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2020-08-12 07:00:00-05:00</c:v>
+                  <c:v>2020-08-12 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2020-08-12 08:00:00-05:00</c:v>
+                  <c:v>2020-08-12 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2020-08-12 09:00:00-05:00</c:v>
+                  <c:v>2020-08-12 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2020-08-12 10:00:00-05:00</c:v>
+                  <c:v>2020-08-12 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2020-08-12 11:00:00-05:00</c:v>
+                  <c:v>2020-08-12 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2020-08-12 12:00:00-05:00</c:v>
+                  <c:v>2020-08-12 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2020-08-12 13:00:00-05:00</c:v>
+                  <c:v>2020-08-12 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2020-08-12 14:00:00-05:00</c:v>
+                  <c:v>2020-08-12 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2020-08-12 15:00:00-05:00</c:v>
+                  <c:v>2020-08-12 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2020-08-12 16:00:00-05:00</c:v>
+                  <c:v>2020-08-12 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2020-08-12 17:00:00-05:00</c:v>
+                  <c:v>2020-08-12 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2020-08-12 18:00:00-05:00</c:v>
+                  <c:v>2020-08-12 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2020-08-12 19:00:00-05:00</c:v>
+                  <c:v>2020-08-12 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2020-08-12 20:00:00-05:00</c:v>
+                  <c:v>2020-08-12 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2020-08-12 21:00:00-05:00</c:v>
+                  <c:v>2020-08-12 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2020-08-12 22:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2020-08-12 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:59:59.999999-05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7697,13 +7697,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -7745,7 +7745,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -8259,580 +8259,580 @@
                   <c:v>2020-08-05 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-08-05 00:00:00-05:00</c:v>
+                  <c:v>2020-08-05 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-08-05 01:00:00-05:00</c:v>
+                  <c:v>2020-08-05 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-08-05 02:00:00-05:00</c:v>
+                  <c:v>2020-08-05 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-08-05 03:00:00-05:00</c:v>
+                  <c:v>2020-08-05 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-08-05 04:00:00-05:00</c:v>
+                  <c:v>2020-08-05 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-08-05 05:00:00-05:00</c:v>
+                  <c:v>2020-08-05 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08-05 06:00:00-05:00</c:v>
+                  <c:v>2020-08-05 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-08-05 07:00:00-05:00</c:v>
+                  <c:v>2020-08-05 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-08-05 08:00:00-05:00</c:v>
+                  <c:v>2020-08-05 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-08-05 09:00:00-05:00</c:v>
+                  <c:v>2020-08-05 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-08-05 10:00:00-05:00</c:v>
+                  <c:v>2020-08-05 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-08-05 11:00:00-05:00</c:v>
+                  <c:v>2020-08-05 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-08-05 12:00:00-05:00</c:v>
+                  <c:v>2020-08-05 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-08-05 13:00:00-05:00</c:v>
+                  <c:v>2020-08-05 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-08-05 14:00:00-05:00</c:v>
+                  <c:v>2020-08-05 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-08-05 15:00:00-05:00</c:v>
+                  <c:v>2020-08-05 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-08-05 16:00:00-05:00</c:v>
+                  <c:v>2020-08-05 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-08-05 17:00:00-05:00</c:v>
+                  <c:v>2020-08-05 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-08-05 18:00:00-05:00</c:v>
+                  <c:v>2020-08-05 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-08-05 19:00:00-05:00</c:v>
+                  <c:v>2020-08-05 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-08-05 20:00:00-05:00</c:v>
+                  <c:v>2020-08-05 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-08-05 21:00:00-05:00</c:v>
+                  <c:v>2020-08-05 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-08-05 22:00:00-05:00</c:v>
+                  <c:v>2020-08-05 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020-08-05 23:00:00-05:00</c:v>
+                  <c:v>2020-08-06 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020-08-06 00:00:00-05:00</c:v>
+                  <c:v>2020-08-06 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020-08-06 01:00:00-05:00</c:v>
+                  <c:v>2020-08-06 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020-08-06 02:00:00-05:00</c:v>
+                  <c:v>2020-08-06 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020-08-06 03:00:00-05:00</c:v>
+                  <c:v>2020-08-06 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020-08-06 04:00:00-05:00</c:v>
+                  <c:v>2020-08-06 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2020-08-06 05:00:00-05:00</c:v>
+                  <c:v>2020-08-06 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2020-08-06 06:00:00-05:00</c:v>
+                  <c:v>2020-08-06 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2020-08-06 07:00:00-05:00</c:v>
+                  <c:v>2020-08-06 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020-08-06 08:00:00-05:00</c:v>
+                  <c:v>2020-08-06 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2020-08-06 09:00:00-05:00</c:v>
+                  <c:v>2020-08-06 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2020-08-06 10:00:00-05:00</c:v>
+                  <c:v>2020-08-06 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2020-08-06 11:00:00-05:00</c:v>
+                  <c:v>2020-08-06 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2020-08-06 12:00:00-05:00</c:v>
+                  <c:v>2020-08-06 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2020-08-06 13:00:00-05:00</c:v>
+                  <c:v>2020-08-06 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2020-08-06 14:00:00-05:00</c:v>
+                  <c:v>2020-08-06 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2020-08-06 15:00:00-05:00</c:v>
+                  <c:v>2020-08-06 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2020-08-06 16:00:00-05:00</c:v>
+                  <c:v>2020-08-06 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2020-08-06 17:00:00-05:00</c:v>
+                  <c:v>2020-08-06 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2020-08-06 18:00:00-05:00</c:v>
+                  <c:v>2020-08-06 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2020-08-06 19:00:00-05:00</c:v>
+                  <c:v>2020-08-06 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2020-08-06 20:00:00-05:00</c:v>
+                  <c:v>2020-08-06 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2020-08-06 21:00:00-05:00</c:v>
+                  <c:v>2020-08-06 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2020-08-06 22:00:00-05:00</c:v>
+                  <c:v>2020-08-06 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2020-08-06 23:00:00-05:00</c:v>
+                  <c:v>2020-08-07 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2020-08-07 00:00:00-05:00</c:v>
+                  <c:v>2020-08-07 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2020-08-07 01:00:00-05:00</c:v>
+                  <c:v>2020-08-07 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2020-08-07 02:00:00-05:00</c:v>
+                  <c:v>2020-08-07 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2020-08-07 03:00:00-05:00</c:v>
+                  <c:v>2020-08-07 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2020-08-07 04:00:00-05:00</c:v>
+                  <c:v>2020-08-07 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2020-08-07 05:00:00-05:00</c:v>
+                  <c:v>2020-08-07 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2020-08-07 06:00:00-05:00</c:v>
+                  <c:v>2020-08-07 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2020-08-07 07:00:00-05:00</c:v>
+                  <c:v>2020-08-07 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2020-08-07 08:00:00-05:00</c:v>
+                  <c:v>2020-08-07 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2020-08-07 09:00:00-05:00</c:v>
+                  <c:v>2020-08-07 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2020-08-07 10:00:00-05:00</c:v>
+                  <c:v>2020-08-07 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2020-08-07 11:00:00-05:00</c:v>
+                  <c:v>2020-08-07 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020-08-07 12:00:00-05:00</c:v>
+                  <c:v>2020-08-07 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2020-08-07 13:00:00-05:00</c:v>
+                  <c:v>2020-08-07 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2020-08-07 14:00:00-05:00</c:v>
+                  <c:v>2020-08-07 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2020-08-07 15:00:00-05:00</c:v>
+                  <c:v>2020-08-07 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2020-08-07 16:00:00-05:00</c:v>
+                  <c:v>2020-08-07 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2020-08-07 17:00:00-05:00</c:v>
+                  <c:v>2020-08-07 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2020-08-07 18:00:00-05:00</c:v>
+                  <c:v>2020-08-07 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2020-08-07 19:00:00-05:00</c:v>
+                  <c:v>2020-08-07 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2020-08-07 20:00:00-05:00</c:v>
+                  <c:v>2020-08-07 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2020-08-07 21:00:00-05:00</c:v>
+                  <c:v>2020-08-07 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2020-08-07 22:00:00-05:00</c:v>
+                  <c:v>2020-08-07 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2020-08-07 23:00:00-05:00</c:v>
+                  <c:v>2020-08-08 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2020-08-08 00:00:00-05:00</c:v>
+                  <c:v>2020-08-08 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2020-08-08 01:00:00-05:00</c:v>
+                  <c:v>2020-08-08 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2020-08-08 02:00:00-05:00</c:v>
+                  <c:v>2020-08-08 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2020-08-08 03:00:00-05:00</c:v>
+                  <c:v>2020-08-08 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2020-08-08 04:00:00-05:00</c:v>
+                  <c:v>2020-08-08 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2020-08-08 05:00:00-05:00</c:v>
+                  <c:v>2020-08-08 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2020-08-08 06:00:00-05:00</c:v>
+                  <c:v>2020-08-08 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2020-08-08 07:00:00-05:00</c:v>
+                  <c:v>2020-08-08 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2020-08-08 08:00:00-05:00</c:v>
+                  <c:v>2020-08-08 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2020-08-08 09:00:00-05:00</c:v>
+                  <c:v>2020-08-08 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2020-08-08 10:00:00-05:00</c:v>
+                  <c:v>2020-08-08 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2020-08-08 11:00:00-05:00</c:v>
+                  <c:v>2020-08-08 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2020-08-08 12:00:00-05:00</c:v>
+                  <c:v>2020-08-08 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2020-08-08 13:00:00-05:00</c:v>
+                  <c:v>2020-08-08 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2020-08-08 14:00:00-05:00</c:v>
+                  <c:v>2020-08-08 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2020-08-08 15:00:00-05:00</c:v>
+                  <c:v>2020-08-08 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2020-08-08 16:00:00-05:00</c:v>
+                  <c:v>2020-08-08 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2020-08-08 17:00:00-05:00</c:v>
+                  <c:v>2020-08-08 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2020-08-08 18:00:00-05:00</c:v>
+                  <c:v>2020-08-08 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2020-08-08 19:00:00-05:00</c:v>
+                  <c:v>2020-08-08 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2020-08-08 20:00:00-05:00</c:v>
+                  <c:v>2020-08-08 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2020-08-08 21:00:00-05:00</c:v>
+                  <c:v>2020-08-08 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2020-08-08 22:00:00-05:00</c:v>
+                  <c:v>2020-08-08 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2020-08-08 23:00:00-05:00</c:v>
+                  <c:v>2020-08-09 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2020-08-09 00:00:00-05:00</c:v>
+                  <c:v>2020-08-09 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2020-08-09 01:00:00-05:00</c:v>
+                  <c:v>2020-08-09 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2020-08-09 02:00:00-05:00</c:v>
+                  <c:v>2020-08-09 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2020-08-09 03:00:00-05:00</c:v>
+                  <c:v>2020-08-09 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2020-08-09 04:00:00-05:00</c:v>
+                  <c:v>2020-08-09 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2020-08-09 05:00:00-05:00</c:v>
+                  <c:v>2020-08-09 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2020-08-09 06:00:00-05:00</c:v>
+                  <c:v>2020-08-09 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2020-08-09 07:00:00-05:00</c:v>
+                  <c:v>2020-08-09 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2020-08-09 08:00:00-05:00</c:v>
+                  <c:v>2020-08-09 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2020-08-09 09:00:00-05:00</c:v>
+                  <c:v>2020-08-09 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2020-08-09 10:00:00-05:00</c:v>
+                  <c:v>2020-08-09 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2020-08-09 11:00:00-05:00</c:v>
+                  <c:v>2020-08-09 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2020-08-09 12:00:00-05:00</c:v>
+                  <c:v>2020-08-09 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2020-08-09 13:00:00-05:00</c:v>
+                  <c:v>2020-08-09 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2020-08-09 14:00:00-05:00</c:v>
+                  <c:v>2020-08-09 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2020-08-09 15:00:00-05:00</c:v>
+                  <c:v>2020-08-09 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2020-08-09 16:00:00-05:00</c:v>
+                  <c:v>2020-08-09 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2020-08-09 17:00:00-05:00</c:v>
+                  <c:v>2020-08-09 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2020-08-09 18:00:00-05:00</c:v>
+                  <c:v>2020-08-09 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2020-08-09 19:00:00-05:00</c:v>
+                  <c:v>2020-08-09 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2020-08-09 20:00:00-05:00</c:v>
+                  <c:v>2020-08-09 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2020-08-09 21:00:00-05:00</c:v>
+                  <c:v>2020-08-09 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2020-08-09 22:00:00-05:00</c:v>
+                  <c:v>2020-08-09 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2020-08-09 23:00:00-05:00</c:v>
+                  <c:v>2020-08-10 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2020-08-10 00:00:00-05:00</c:v>
+                  <c:v>2020-08-10 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2020-08-10 01:00:00-05:00</c:v>
+                  <c:v>2020-08-10 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2020-08-10 02:00:00-05:00</c:v>
+                  <c:v>2020-08-10 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2020-08-10 03:00:00-05:00</c:v>
+                  <c:v>2020-08-10 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2020-08-10 04:00:00-05:00</c:v>
+                  <c:v>2020-08-10 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2020-08-10 05:00:00-05:00</c:v>
+                  <c:v>2020-08-10 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2020-08-10 06:00:00-05:00</c:v>
+                  <c:v>2020-08-10 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2020-08-10 07:00:00-05:00</c:v>
+                  <c:v>2020-08-10 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2020-08-10 08:00:00-05:00</c:v>
+                  <c:v>2020-08-10 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2020-08-10 09:00:00-05:00</c:v>
+                  <c:v>2020-08-10 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2020-08-10 10:00:00-05:00</c:v>
+                  <c:v>2020-08-10 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2020-08-10 11:00:00-05:00</c:v>
+                  <c:v>2020-08-10 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2020-08-10 12:00:00-05:00</c:v>
+                  <c:v>2020-08-10 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2020-08-10 13:00:00-05:00</c:v>
+                  <c:v>2020-08-10 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2020-08-10 14:00:00-05:00</c:v>
+                  <c:v>2020-08-10 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2020-08-10 15:00:00-05:00</c:v>
+                  <c:v>2020-08-10 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2020-08-10 16:00:00-05:00</c:v>
+                  <c:v>2020-08-10 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2020-08-10 17:00:00-05:00</c:v>
+                  <c:v>2020-08-10 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2020-08-10 18:00:00-05:00</c:v>
+                  <c:v>2020-08-10 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2020-08-10 19:00:00-05:00</c:v>
+                  <c:v>2020-08-10 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2020-08-10 20:00:00-05:00</c:v>
+                  <c:v>2020-08-10 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2020-08-10 21:00:00-05:00</c:v>
+                  <c:v>2020-08-10 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2020-08-10 22:00:00-05:00</c:v>
+                  <c:v>2020-08-10 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2020-08-10 23:00:00-05:00</c:v>
+                  <c:v>2020-08-11 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2020-08-11 00:00:00-05:00</c:v>
+                  <c:v>2020-08-11 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2020-08-11 01:00:00-05:00</c:v>
+                  <c:v>2020-08-11 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2020-08-11 02:00:00-05:00</c:v>
+                  <c:v>2020-08-11 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2020-08-11 03:00:00-05:00</c:v>
+                  <c:v>2020-08-11 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2020-08-11 04:00:00-05:00</c:v>
+                  <c:v>2020-08-11 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2020-08-11 05:00:00-05:00</c:v>
+                  <c:v>2020-08-11 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2020-08-11 06:00:00-05:00</c:v>
+                  <c:v>2020-08-11 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2020-08-11 07:00:00-05:00</c:v>
+                  <c:v>2020-08-11 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2020-08-11 08:00:00-05:00</c:v>
+                  <c:v>2020-08-11 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2020-08-11 09:00:00-05:00</c:v>
+                  <c:v>2020-08-11 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2020-08-11 10:00:00-05:00</c:v>
+                  <c:v>2020-08-11 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2020-08-11 11:00:00-05:00</c:v>
+                  <c:v>2020-08-11 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2020-08-11 12:00:00-05:00</c:v>
+                  <c:v>2020-08-11 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2020-08-11 13:00:00-05:00</c:v>
+                  <c:v>2020-08-11 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2020-08-11 14:00:00-05:00</c:v>
+                  <c:v>2020-08-11 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2020-08-11 15:00:00-05:00</c:v>
+                  <c:v>2020-08-11 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2020-08-11 16:00:00-05:00</c:v>
+                  <c:v>2020-08-11 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2020-08-11 17:00:00-05:00</c:v>
+                  <c:v>2020-08-11 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2020-08-11 18:00:00-05:00</c:v>
+                  <c:v>2020-08-11 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2020-08-11 19:00:00-05:00</c:v>
+                  <c:v>2020-08-11 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2020-08-11 20:00:00-05:00</c:v>
+                  <c:v>2020-08-11 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2020-08-11 21:00:00-05:00</c:v>
+                  <c:v>2020-08-11 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2020-08-11 22:00:00-05:00</c:v>
+                  <c:v>2020-08-11 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2020-08-11 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2020-08-12 00:00:00-05:00</c:v>
+                  <c:v>2020-08-12 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2020-08-12 01:00:00-05:00</c:v>
+                  <c:v>2020-08-12 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2020-08-12 02:00:00-05:00</c:v>
+                  <c:v>2020-08-12 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2020-08-12 03:00:00-05:00</c:v>
+                  <c:v>2020-08-12 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2020-08-12 04:00:00-05:00</c:v>
+                  <c:v>2020-08-12 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2020-08-12 05:00:00-05:00</c:v>
+                  <c:v>2020-08-12 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2020-08-12 06:00:00-05:00</c:v>
+                  <c:v>2020-08-12 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2020-08-12 07:00:00-05:00</c:v>
+                  <c:v>2020-08-12 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2020-08-12 08:00:00-05:00</c:v>
+                  <c:v>2020-08-12 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2020-08-12 09:00:00-05:00</c:v>
+                  <c:v>2020-08-12 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2020-08-12 10:00:00-05:00</c:v>
+                  <c:v>2020-08-12 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2020-08-12 11:00:00-05:00</c:v>
+                  <c:v>2020-08-12 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2020-08-12 12:00:00-05:00</c:v>
+                  <c:v>2020-08-12 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2020-08-12 13:00:00-05:00</c:v>
+                  <c:v>2020-08-12 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2020-08-12 14:00:00-05:00</c:v>
+                  <c:v>2020-08-12 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2020-08-12 15:00:00-05:00</c:v>
+                  <c:v>2020-08-12 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2020-08-12 16:00:00-05:00</c:v>
+                  <c:v>2020-08-12 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2020-08-12 17:00:00-05:00</c:v>
+                  <c:v>2020-08-12 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2020-08-12 18:00:00-05:00</c:v>
+                  <c:v>2020-08-12 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2020-08-12 19:00:00-05:00</c:v>
+                  <c:v>2020-08-12 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2020-08-12 20:00:00-05:00</c:v>
+                  <c:v>2020-08-12 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2020-08-12 21:00:00-05:00</c:v>
+                  <c:v>2020-08-12 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2020-08-12 22:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2020-08-12 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:59:59.999999-05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8844,583 +8844,583 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="193"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9480,580 +9480,580 @@
                   <c:v>2020-08-05 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-08-05 00:00:00-05:00</c:v>
+                  <c:v>2020-08-05 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-08-05 01:00:00-05:00</c:v>
+                  <c:v>2020-08-05 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-08-05 02:00:00-05:00</c:v>
+                  <c:v>2020-08-05 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-08-05 03:00:00-05:00</c:v>
+                  <c:v>2020-08-05 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-08-05 04:00:00-05:00</c:v>
+                  <c:v>2020-08-05 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-08-05 05:00:00-05:00</c:v>
+                  <c:v>2020-08-05 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08-05 06:00:00-05:00</c:v>
+                  <c:v>2020-08-05 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-08-05 07:00:00-05:00</c:v>
+                  <c:v>2020-08-05 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-08-05 08:00:00-05:00</c:v>
+                  <c:v>2020-08-05 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-08-05 09:00:00-05:00</c:v>
+                  <c:v>2020-08-05 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-08-05 10:00:00-05:00</c:v>
+                  <c:v>2020-08-05 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2020-08-05 11:00:00-05:00</c:v>
+                  <c:v>2020-08-05 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020-08-05 12:00:00-05:00</c:v>
+                  <c:v>2020-08-05 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2020-08-05 13:00:00-05:00</c:v>
+                  <c:v>2020-08-05 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2020-08-05 14:00:00-05:00</c:v>
+                  <c:v>2020-08-05 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2020-08-05 15:00:00-05:00</c:v>
+                  <c:v>2020-08-05 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2020-08-05 16:00:00-05:00</c:v>
+                  <c:v>2020-08-05 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2020-08-05 17:00:00-05:00</c:v>
+                  <c:v>2020-08-05 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2020-08-05 18:00:00-05:00</c:v>
+                  <c:v>2020-08-05 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2020-08-05 19:00:00-05:00</c:v>
+                  <c:v>2020-08-05 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2020-08-05 20:00:00-05:00</c:v>
+                  <c:v>2020-08-05 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2020-08-05 21:00:00-05:00</c:v>
+                  <c:v>2020-08-05 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2020-08-05 22:00:00-05:00</c:v>
+                  <c:v>2020-08-05 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2020-08-05 23:00:00-05:00</c:v>
+                  <c:v>2020-08-06 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2020-08-06 00:00:00-05:00</c:v>
+                  <c:v>2020-08-06 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2020-08-06 01:00:00-05:00</c:v>
+                  <c:v>2020-08-06 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2020-08-06 02:00:00-05:00</c:v>
+                  <c:v>2020-08-06 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2020-08-06 03:00:00-05:00</c:v>
+                  <c:v>2020-08-06 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2020-08-06 04:00:00-05:00</c:v>
+                  <c:v>2020-08-06 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2020-08-06 05:00:00-05:00</c:v>
+                  <c:v>2020-08-06 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2020-08-06 06:00:00-05:00</c:v>
+                  <c:v>2020-08-06 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2020-08-06 07:00:00-05:00</c:v>
+                  <c:v>2020-08-06 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2020-08-06 08:00:00-05:00</c:v>
+                  <c:v>2020-08-06 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2020-08-06 09:00:00-05:00</c:v>
+                  <c:v>2020-08-06 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2020-08-06 10:00:00-05:00</c:v>
+                  <c:v>2020-08-06 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2020-08-06 11:00:00-05:00</c:v>
+                  <c:v>2020-08-06 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2020-08-06 12:00:00-05:00</c:v>
+                  <c:v>2020-08-06 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2020-08-06 13:00:00-05:00</c:v>
+                  <c:v>2020-08-06 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2020-08-06 14:00:00-05:00</c:v>
+                  <c:v>2020-08-06 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2020-08-06 15:00:00-05:00</c:v>
+                  <c:v>2020-08-06 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2020-08-06 16:00:00-05:00</c:v>
+                  <c:v>2020-08-06 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2020-08-06 17:00:00-05:00</c:v>
+                  <c:v>2020-08-06 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2020-08-06 18:00:00-05:00</c:v>
+                  <c:v>2020-08-06 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2020-08-06 19:00:00-05:00</c:v>
+                  <c:v>2020-08-06 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2020-08-06 20:00:00-05:00</c:v>
+                  <c:v>2020-08-06 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2020-08-06 21:00:00-05:00</c:v>
+                  <c:v>2020-08-06 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2020-08-06 22:00:00-05:00</c:v>
+                  <c:v>2020-08-06 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2020-08-06 23:00:00-05:00</c:v>
+                  <c:v>2020-08-07 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2020-08-07 00:00:00-05:00</c:v>
+                  <c:v>2020-08-07 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2020-08-07 01:00:00-05:00</c:v>
+                  <c:v>2020-08-07 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2020-08-07 02:00:00-05:00</c:v>
+                  <c:v>2020-08-07 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2020-08-07 03:00:00-05:00</c:v>
+                  <c:v>2020-08-07 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2020-08-07 04:00:00-05:00</c:v>
+                  <c:v>2020-08-07 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2020-08-07 05:00:00-05:00</c:v>
+                  <c:v>2020-08-07 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2020-08-07 06:00:00-05:00</c:v>
+                  <c:v>2020-08-07 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2020-08-07 07:00:00-05:00</c:v>
+                  <c:v>2020-08-07 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2020-08-07 08:00:00-05:00</c:v>
+                  <c:v>2020-08-07 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2020-08-07 09:00:00-05:00</c:v>
+                  <c:v>2020-08-07 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2020-08-07 10:00:00-05:00</c:v>
+                  <c:v>2020-08-07 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2020-08-07 11:00:00-05:00</c:v>
+                  <c:v>2020-08-07 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2020-08-07 12:00:00-05:00</c:v>
+                  <c:v>2020-08-07 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2020-08-07 13:00:00-05:00</c:v>
+                  <c:v>2020-08-07 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2020-08-07 14:00:00-05:00</c:v>
+                  <c:v>2020-08-07 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2020-08-07 15:00:00-05:00</c:v>
+                  <c:v>2020-08-07 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2020-08-07 16:00:00-05:00</c:v>
+                  <c:v>2020-08-07 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2020-08-07 17:00:00-05:00</c:v>
+                  <c:v>2020-08-07 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2020-08-07 18:00:00-05:00</c:v>
+                  <c:v>2020-08-07 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2020-08-07 19:00:00-05:00</c:v>
+                  <c:v>2020-08-07 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2020-08-07 20:00:00-05:00</c:v>
+                  <c:v>2020-08-07 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2020-08-07 21:00:00-05:00</c:v>
+                  <c:v>2020-08-07 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2020-08-07 22:00:00-05:00</c:v>
+                  <c:v>2020-08-07 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2020-08-07 23:00:00-05:00</c:v>
+                  <c:v>2020-08-08 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2020-08-08 00:00:00-05:00</c:v>
+                  <c:v>2020-08-08 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2020-08-08 01:00:00-05:00</c:v>
+                  <c:v>2020-08-08 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2020-08-08 02:00:00-05:00</c:v>
+                  <c:v>2020-08-08 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2020-08-08 03:00:00-05:00</c:v>
+                  <c:v>2020-08-08 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2020-08-08 04:00:00-05:00</c:v>
+                  <c:v>2020-08-08 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2020-08-08 05:00:00-05:00</c:v>
+                  <c:v>2020-08-08 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2020-08-08 06:00:00-05:00</c:v>
+                  <c:v>2020-08-08 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2020-08-08 07:00:00-05:00</c:v>
+                  <c:v>2020-08-08 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2020-08-08 08:00:00-05:00</c:v>
+                  <c:v>2020-08-08 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2020-08-08 09:00:00-05:00</c:v>
+                  <c:v>2020-08-08 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2020-08-08 10:00:00-05:00</c:v>
+                  <c:v>2020-08-08 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2020-08-08 11:00:00-05:00</c:v>
+                  <c:v>2020-08-08 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2020-08-08 12:00:00-05:00</c:v>
+                  <c:v>2020-08-08 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2020-08-08 13:00:00-05:00</c:v>
+                  <c:v>2020-08-08 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2020-08-08 14:00:00-05:00</c:v>
+                  <c:v>2020-08-08 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2020-08-08 15:00:00-05:00</c:v>
+                  <c:v>2020-08-08 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2020-08-08 16:00:00-05:00</c:v>
+                  <c:v>2020-08-08 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2020-08-08 17:00:00-05:00</c:v>
+                  <c:v>2020-08-08 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2020-08-08 18:00:00-05:00</c:v>
+                  <c:v>2020-08-08 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2020-08-08 19:00:00-05:00</c:v>
+                  <c:v>2020-08-08 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2020-08-08 20:00:00-05:00</c:v>
+                  <c:v>2020-08-08 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2020-08-08 21:00:00-05:00</c:v>
+                  <c:v>2020-08-08 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2020-08-08 22:00:00-05:00</c:v>
+                  <c:v>2020-08-08 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2020-08-08 23:00:00-05:00</c:v>
+                  <c:v>2020-08-09 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2020-08-09 00:00:00-05:00</c:v>
+                  <c:v>2020-08-09 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2020-08-09 01:00:00-05:00</c:v>
+                  <c:v>2020-08-09 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2020-08-09 02:00:00-05:00</c:v>
+                  <c:v>2020-08-09 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2020-08-09 03:00:00-05:00</c:v>
+                  <c:v>2020-08-09 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2020-08-09 04:00:00-05:00</c:v>
+                  <c:v>2020-08-09 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2020-08-09 05:00:00-05:00</c:v>
+                  <c:v>2020-08-09 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2020-08-09 06:00:00-05:00</c:v>
+                  <c:v>2020-08-09 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2020-08-09 07:00:00-05:00</c:v>
+                  <c:v>2020-08-09 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2020-08-09 08:00:00-05:00</c:v>
+                  <c:v>2020-08-09 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2020-08-09 09:00:00-05:00</c:v>
+                  <c:v>2020-08-09 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2020-08-09 10:00:00-05:00</c:v>
+                  <c:v>2020-08-09 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2020-08-09 11:00:00-05:00</c:v>
+                  <c:v>2020-08-09 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2020-08-09 12:00:00-05:00</c:v>
+                  <c:v>2020-08-09 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2020-08-09 13:00:00-05:00</c:v>
+                  <c:v>2020-08-09 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2020-08-09 14:00:00-05:00</c:v>
+                  <c:v>2020-08-09 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2020-08-09 15:00:00-05:00</c:v>
+                  <c:v>2020-08-09 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2020-08-09 16:00:00-05:00</c:v>
+                  <c:v>2020-08-09 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2020-08-09 17:00:00-05:00</c:v>
+                  <c:v>2020-08-09 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2020-08-09 18:00:00-05:00</c:v>
+                  <c:v>2020-08-09 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2020-08-09 19:00:00-05:00</c:v>
+                  <c:v>2020-08-09 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2020-08-09 20:00:00-05:00</c:v>
+                  <c:v>2020-08-09 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2020-08-09 21:00:00-05:00</c:v>
+                  <c:v>2020-08-09 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2020-08-09 22:00:00-05:00</c:v>
+                  <c:v>2020-08-09 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2020-08-09 23:00:00-05:00</c:v>
+                  <c:v>2020-08-10 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2020-08-10 00:00:00-05:00</c:v>
+                  <c:v>2020-08-10 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2020-08-10 01:00:00-05:00</c:v>
+                  <c:v>2020-08-10 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2020-08-10 02:00:00-05:00</c:v>
+                  <c:v>2020-08-10 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2020-08-10 03:00:00-05:00</c:v>
+                  <c:v>2020-08-10 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2020-08-10 04:00:00-05:00</c:v>
+                  <c:v>2020-08-10 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2020-08-10 05:00:00-05:00</c:v>
+                  <c:v>2020-08-10 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2020-08-10 06:00:00-05:00</c:v>
+                  <c:v>2020-08-10 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2020-08-10 07:00:00-05:00</c:v>
+                  <c:v>2020-08-10 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2020-08-10 08:00:00-05:00</c:v>
+                  <c:v>2020-08-10 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2020-08-10 09:00:00-05:00</c:v>
+                  <c:v>2020-08-10 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2020-08-10 10:00:00-05:00</c:v>
+                  <c:v>2020-08-10 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2020-08-10 11:00:00-05:00</c:v>
+                  <c:v>2020-08-10 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2020-08-10 12:00:00-05:00</c:v>
+                  <c:v>2020-08-10 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2020-08-10 13:00:00-05:00</c:v>
+                  <c:v>2020-08-10 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2020-08-10 14:00:00-05:00</c:v>
+                  <c:v>2020-08-10 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2020-08-10 15:00:00-05:00</c:v>
+                  <c:v>2020-08-10 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2020-08-10 16:00:00-05:00</c:v>
+                  <c:v>2020-08-10 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2020-08-10 17:00:00-05:00</c:v>
+                  <c:v>2020-08-10 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2020-08-10 18:00:00-05:00</c:v>
+                  <c:v>2020-08-10 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2020-08-10 19:00:00-05:00</c:v>
+                  <c:v>2020-08-10 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2020-08-10 20:00:00-05:00</c:v>
+                  <c:v>2020-08-10 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2020-08-10 21:00:00-05:00</c:v>
+                  <c:v>2020-08-10 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2020-08-10 22:00:00-05:00</c:v>
+                  <c:v>2020-08-10 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2020-08-10 23:00:00-05:00</c:v>
+                  <c:v>2020-08-11 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2020-08-11 00:00:00-05:00</c:v>
+                  <c:v>2020-08-11 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2020-08-11 01:00:00-05:00</c:v>
+                  <c:v>2020-08-11 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2020-08-11 02:00:00-05:00</c:v>
+                  <c:v>2020-08-11 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2020-08-11 03:00:00-05:00</c:v>
+                  <c:v>2020-08-11 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2020-08-11 04:00:00-05:00</c:v>
+                  <c:v>2020-08-11 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2020-08-11 05:00:00-05:00</c:v>
+                  <c:v>2020-08-11 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2020-08-11 06:00:00-05:00</c:v>
+                  <c:v>2020-08-11 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2020-08-11 07:00:00-05:00</c:v>
+                  <c:v>2020-08-11 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2020-08-11 08:00:00-05:00</c:v>
+                  <c:v>2020-08-11 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2020-08-11 09:00:00-05:00</c:v>
+                  <c:v>2020-08-11 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2020-08-11 10:00:00-05:00</c:v>
+                  <c:v>2020-08-11 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2020-08-11 11:00:00-05:00</c:v>
+                  <c:v>2020-08-11 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2020-08-11 12:00:00-05:00</c:v>
+                  <c:v>2020-08-11 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2020-08-11 13:00:00-05:00</c:v>
+                  <c:v>2020-08-11 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2020-08-11 14:00:00-05:00</c:v>
+                  <c:v>2020-08-11 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2020-08-11 15:00:00-05:00</c:v>
+                  <c:v>2020-08-11 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2020-08-11 16:00:00-05:00</c:v>
+                  <c:v>2020-08-11 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2020-08-11 17:00:00-05:00</c:v>
+                  <c:v>2020-08-11 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2020-08-11 18:00:00-05:00</c:v>
+                  <c:v>2020-08-11 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2020-08-11 19:00:00-05:00</c:v>
+                  <c:v>2020-08-11 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2020-08-11 20:00:00-05:00</c:v>
+                  <c:v>2020-08-11 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2020-08-11 21:00:00-05:00</c:v>
+                  <c:v>2020-08-11 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2020-08-11 22:00:00-05:00</c:v>
+                  <c:v>2020-08-11 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2020-08-11 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 00:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2020-08-12 00:00:00-05:00</c:v>
+                  <c:v>2020-08-12 01:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2020-08-12 01:00:00-05:00</c:v>
+                  <c:v>2020-08-12 02:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2020-08-12 02:00:00-05:00</c:v>
+                  <c:v>2020-08-12 03:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2020-08-12 03:00:00-05:00</c:v>
+                  <c:v>2020-08-12 04:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2020-08-12 04:00:00-05:00</c:v>
+                  <c:v>2020-08-12 05:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2020-08-12 05:00:00-05:00</c:v>
+                  <c:v>2020-08-12 06:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2020-08-12 06:00:00-05:00</c:v>
+                  <c:v>2020-08-12 07:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2020-08-12 07:00:00-05:00</c:v>
+                  <c:v>2020-08-12 08:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2020-08-12 08:00:00-05:00</c:v>
+                  <c:v>2020-08-12 09:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2020-08-12 09:00:00-05:00</c:v>
+                  <c:v>2020-08-12 10:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2020-08-12 10:00:00-05:00</c:v>
+                  <c:v>2020-08-12 11:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2020-08-12 11:00:00-05:00</c:v>
+                  <c:v>2020-08-12 12:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2020-08-12 12:00:00-05:00</c:v>
+                  <c:v>2020-08-12 13:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2020-08-12 13:00:00-05:00</c:v>
+                  <c:v>2020-08-12 14:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2020-08-12 14:00:00-05:00</c:v>
+                  <c:v>2020-08-12 15:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2020-08-12 15:00:00-05:00</c:v>
+                  <c:v>2020-08-12 16:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2020-08-12 16:00:00-05:00</c:v>
+                  <c:v>2020-08-12 17:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2020-08-12 17:00:00-05:00</c:v>
+                  <c:v>2020-08-12 18:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2020-08-12 18:00:00-05:00</c:v>
+                  <c:v>2020-08-12 19:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2020-08-12 19:00:00-05:00</c:v>
+                  <c:v>2020-08-12 20:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2020-08-12 20:00:00-05:00</c:v>
+                  <c:v>2020-08-12 21:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2020-08-12 21:00:00-05:00</c:v>
+                  <c:v>2020-08-12 22:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2020-08-12 22:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:00:00-05:00</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2020-08-12 23:00:00-05:00</c:v>
+                  <c:v>2020-08-12 23:59:59.999999-05:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10065,7 +10065,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="193"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
@@ -11459,7 +11459,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="152" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11470,7 +11470,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="244" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="152" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11514,7 +11514,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8681493" cy="6293134"/>
+    <xdr:ext cx="8672763" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15359,7 +15359,7 @@
   <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15389,3480 +15389,3480 @@
         <v>391</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>MAX(G2:G194)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <f>SUM(B2:D2)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="0">SUM(B3:D3)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G130" si="1">SUM(B67:D67)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G96">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G100">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G104">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G115">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C122">
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G122">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G126">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G127">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G128">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C129">
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G129">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C130">
         <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G130">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G131">
         <f t="shared" ref="G131:G193" si="2">SUM(B131:D131)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C132">
         <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G132">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C133">
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G133">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C134">
         <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G134">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G135">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G136">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G137">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G138">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G139">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G140">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G141">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G142">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G143">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G144">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G145">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G146">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G147">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G148">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G149">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G150">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G151">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G152">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G153">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G154">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C155">
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G155">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G156">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G157">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G158">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G159">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G160">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C161">
         <v>0</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G161">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G162">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G163">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B164">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G164">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G165">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G166">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G167">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G168">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G169">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G170">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G171">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G172">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G173">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G174">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G175">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G176">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G177">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C178">
         <v>0</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G178">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G179">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G180">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C181">
         <v>0</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G181">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G182">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G183">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C184">
         <v>0</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G184">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G185">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G186">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G187">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G188">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G189">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G191">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G192">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G193">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="G194">
         <f>SUM(B194:E194)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AADC7-FA9F-B04C-BAAD-DBC3705E1E47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF10FE6-674D-A64E-84D8-87E3BE9C4737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86420" yWindow="1960" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF10FE6-674D-A64E-84D8-87E3BE9C4737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2F58A-3317-D947-86B5-6420BFB1513D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86420" yWindow="1960" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35560" yWindow="-3680" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Burndown Chart" sheetId="2" r:id="rId1"/>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2F58A-3317-D947-86B5-6420BFB1513D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86539B54-8A6B-7443-B644-C587816DE0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35560" yWindow="-3680" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86539B54-8A6B-7443-B644-C587816DE0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2158B71D-D8A0-4E41-B9CE-3CC10194D9B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35560" yWindow="-3680" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/burndown/burndown.xlsx
+++ b/burndown/burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/grading-hot-repos/capstone/36team2/burndown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2158B71D-D8A0-4E41-B9CE-3CC10194D9B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05428104-789F-3A49-BB08-4BE2E16E613A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35560" yWindow="-3680" windowWidth="33600" windowHeight="19280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7003,16 +7003,16 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>31</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>31</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>31</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9411,16 +9411,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>4</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18795,13 +18795,13 @@
         <v>202</v>
       </c>
       <c r="B191">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G191">
         <f t="shared" si="2"/>
@@ -18813,13 +18813,13 @@
         <v>201</v>
       </c>
       <c r="B192">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G192">
         <f t="shared" si="2"/>
@@ -18831,13 +18831,13 @@
         <v>200</v>
       </c>
       <c r="B193">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G193">
         <f t="shared" si="2"/>
@@ -18849,13 +18849,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E194">
         <v>0</v>
